--- a/biology/Zoologie/Caponina/Caponina.xlsx
+++ b/biology/Zoologie/Caponina/Caponina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caponina est un genre d'araignées aranéomorphes de la famille des Caponiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caponina est un genre d'araignées aranéomorphes de la famille des Caponiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud et à Saint-Vincent-et-les-Grenadines[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud et à Saint-Vincent-et-les-Grenadines.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de Caponina comptent généralement six yeux mais parfois deux, trois, quatre ou cinq[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de Caponina comptent généralement six yeux mais parfois deux, trois, quatre ou cinq.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 17/09/2023)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 17/09/2023) :
 Caponina alegre Platnick, 1994
 Caponina alejandroi Sánchez-Ruiz, Martínez &amp; Bonaldo, 2022
 Caponina bochalema Sánchez-Ruiz, Martínez &amp; Bonaldo, 2022
@@ -616,10 +634,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Simon en 1892 dans les Caponiidae.
-Bruchnops[3] a été placé en synonymie par Platnick en 1994[4].
+Bruchnops a été placé en synonymie par Platnick en 1994.
 </t>
         </is>
       </c>
@@ -648,7 +668,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Simon, 1892 : « On the spiders of the island of St. Vincent. Part 1. » Proceedings of the Zoological Society of London, vol. 1891, p. 549-575 (texte intégral).</t>
         </is>
